--- a/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.164161459048698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.480039685579379</v>
+        <v>-4.48003968557938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1392117346911211</v>
@@ -649,7 +649,7 @@
         <v>0.1907650169657014</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2796355453135435</v>
+        <v>-0.2796355453135436</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.524444350748106</v>
+        <v>-3.207365985261974</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.09582155538761</v>
+        <v>-12.68768986907282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.310483272919462</v>
+        <v>-2.855423697292685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.638902559928598</v>
+        <v>-9.242328191513881</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1732036150493949</v>
+        <v>-0.1958759706038508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5700406825427028</v>
+        <v>-0.5526786110396569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1264928739430169</v>
+        <v>-0.1530935901628776</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4611569690373688</v>
+        <v>-0.4880021338928316</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.408728248004172</v>
+        <v>7.696063352945548</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.642764109486501</v>
+        <v>-1.706048245992143</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.623137328745146</v>
+        <v>8.849729503222509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2835463551115884</v>
+        <v>-0.2055302236069758</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6912487290259995</v>
+        <v>0.6460507566103402</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1013321550023863</v>
+        <v>-0.08493254451231291</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6281791812852502</v>
+        <v>0.6384716605418586</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.01237381593107141</v>
+        <v>-0.01301654060696853</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.394802320364604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.397604421870785</v>
+        <v>-1.397604421870782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03319310151138712</v>
@@ -749,7 +749,7 @@
         <v>0.3654950127628742</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08647180296902632</v>
+        <v>-0.08647180296902615</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.598461787408948</v>
+        <v>-5.058937620312163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.530276786120036</v>
+        <v>-3.935982196733787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6028289974640105</v>
+        <v>-0.7159685485322839</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.196423717208812</v>
+        <v>-7.015861274696824</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2551635186394889</v>
+        <v>-0.2713201428549425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2167433206658528</v>
+        <v>-0.2323315883771325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04310357571868495</v>
+        <v>-0.05414098786138379</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3343671432686063</v>
+        <v>-0.366517597955116</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.573573110981558</v>
+        <v>5.630722249723259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.706928414952688</v>
+        <v>7.769909193331707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.41676390683603</v>
+        <v>9.833581065782749</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.39257831378709</v>
+        <v>3.062747447773528</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4279881160912313</v>
+        <v>0.4490487314683718</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6609959587528431</v>
+        <v>0.6457409172248069</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.117582801440363</v>
+        <v>1.017139766461975</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2532403170434037</v>
+        <v>0.2267371653589522</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.093684715092483</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.74072785774325</v>
+        <v>-2.740727857743253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2752051113796717</v>
@@ -849,7 +849,7 @@
         <v>-0.08727744609968201</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1553534673198927</v>
+        <v>-0.1553534673198929</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.77958766244397</v>
+        <v>-11.75059813334133</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.343171872785952</v>
+        <v>-6.477212077515326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.164159255747721</v>
+        <v>-7.083956483781749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.600410404045752</v>
+        <v>-8.142465480159178</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5192703550821918</v>
+        <v>-0.5532210975572541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3728405459992263</v>
+        <v>-0.3806216736017466</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4386050882618135</v>
+        <v>-0.4973434538836373</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4240066875026194</v>
+        <v>-0.4161969740873429</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.489624730257568</v>
+        <v>0.837717641901269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.184241050722947</v>
+        <v>4.036187501099735</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.916319908313802</v>
+        <v>4.596505781461658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.2822940721627</v>
+        <v>3.192031229732058</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08853907400037607</v>
+        <v>0.05114529360894673</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2969714394497208</v>
+        <v>0.2949595381869921</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4991114518110082</v>
+        <v>0.4220963585807705</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2228354672681984</v>
+        <v>0.2148394783954993</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.170895049799003</v>
+        <v>-4.14517921325189</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.640615842127476</v>
+        <v>-4.74658827167458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.102924197986988</v>
+        <v>-2.047485173104965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.966558512718571</v>
+        <v>-5.067166853457675</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2799824987433134</v>
+        <v>-0.2768505774426065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2668068262777883</v>
+        <v>-0.273105430865422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1528666470109648</v>
+        <v>-0.1495532349653568</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.295667935801098</v>
+        <v>-0.2944884072537265</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.133700163645742</v>
+        <v>2.444202828459789</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.866210721886379</v>
+        <v>1.89628575495458</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.134364460944582</v>
+        <v>3.937767578073219</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.450645910139464</v>
+        <v>1.858912291641156</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1621314428103277</v>
+        <v>0.196934523424977</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1242508553454743</v>
+        <v>0.1282214951772818</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3600362999588217</v>
+        <v>0.3490689060339702</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1067039820242203</v>
+        <v>0.138794099478599</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.08282895054780443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.53298058822449</v>
+        <v>-5.532980588224487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3544271162221774</v>
@@ -1049,7 +1049,7 @@
         <v>-0.008636203369381423</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2902216318700249</v>
+        <v>-0.2902216318700248</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.097544795142431</v>
+        <v>-8.687962144835534</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.00429623333016</v>
+        <v>-9.712262010027306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.354483214272205</v>
+        <v>-3.581382696607382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.10802722295866</v>
+        <v>-9.882991410428623</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5777179369768041</v>
+        <v>-0.5743896351853304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5388546291180553</v>
+        <v>-0.5180934960850037</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2866303561864993</v>
+        <v>-0.3012134195303929</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4427248093306988</v>
+        <v>-0.4444758676215839</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.08806296302836614</v>
+        <v>-0.377946410457795</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.134781483394655</v>
+        <v>-1.608972561735978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.32606578332577</v>
+        <v>2.931604276135605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.332175474965947</v>
+        <v>-1.073140321801564</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.005267374418813218</v>
+        <v>-0.01346769407056385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1458406879475978</v>
+        <v>-0.1022711231042162</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4267560814176957</v>
+        <v>0.3608131529671341</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.0803731130800141</v>
+        <v>-0.05813360795860527</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.51395947664912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-9.744218643888496</v>
+        <v>-9.744218643888502</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4747958085653711</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4058984074783157</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4362295637562104</v>
+        <v>-0.4362295637562105</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-15.36599799262672</v>
+        <v>-15.29097149684089</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-24.99122722388635</v>
+        <v>-25.03492054865634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.13066910343611</v>
+        <v>-15.36337872411481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-19.55952733591615</v>
+        <v>-19.75174194830593</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5903085148731706</v>
+        <v>-0.5936130936146562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6626247953608985</v>
+        <v>-0.6593663536785203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5439839794653086</v>
+        <v>-0.5433952320157807</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6223118260600581</v>
+        <v>-0.6167397195711075</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-5.739665305393901</v>
+        <v>-5.387749530879506</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-12.75429950349177</v>
+        <v>-13.11096945437637</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-4.199340688315162</v>
+        <v>-4.668884370837674</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-1.432475981727561</v>
+        <v>-1.571900074739279</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3189968101214574</v>
+        <v>-0.2986960418694018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4565167127008318</v>
+        <v>-0.4655991499072268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2243010246698307</v>
+        <v>-0.226770165110373</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.09078923993105212</v>
+        <v>-0.09005546772907916</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.00425807705142</v>
+        <v>-5.115546983211066</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.941370323419663</v>
+        <v>-5.846866764374337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.538492892770043</v>
+        <v>-1.377506134608471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.352684688320335</v>
+        <v>-5.587329483882198</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2993348955355254</v>
+        <v>-0.3079074216223975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3229811410823386</v>
+        <v>-0.3120959468845369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1095605078936231</v>
+        <v>-0.09480082267967628</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2998692053517013</v>
+        <v>-0.3070350598649669</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.612624352413094</v>
+        <v>-1.551610571131356</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.371394835824364</v>
+        <v>-2.333310874678407</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.866196536368254</v>
+        <v>2.046515188971196</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.857832660922415</v>
+        <v>-1.92976056613939</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1092477135030473</v>
+        <v>-0.1080265444075204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1484225614875279</v>
+        <v>-0.139521622925127</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1486756510426612</v>
+        <v>0.1639004941891077</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.1150604560896804</v>
+        <v>-0.1210268417886762</v>
       </c>
     </row>
     <row r="25">
